--- a/output/nfl_stats_2024.xlsx
+++ b/output/nfl_stats_2024.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmapiers/Desktop/nfl_analyzer/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13721C38-8A1B-7A46-9EBC-17B486BE0057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24840" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Stats" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="WR TE Stats" sheetId="3" r:id="rId3"/>
     <sheet name="RB Stats" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1876,8 +1882,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1940,13 +1946,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1984,7 +1998,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2018,6 +2032,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2052,9 +2067,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2227,14 +2243,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2322,13 +2340,13 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="H2">
         <v>19.2</v>
       </c>
       <c r="I2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="J2">
         <v>38.9</v>
@@ -2337,7 +2355,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2366,13 +2384,13 @@
         <v>17.7</v>
       </c>
       <c r="J3">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="K3">
         <v>12.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2407,12 +2425,12 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C5">
         <v>52.2</v>
@@ -2436,13 +2454,13 @@
         <v>21</v>
       </c>
       <c r="J5">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="K5">
         <v>14.6</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2468,16 +2486,16 @@
         <v>23.1</v>
       </c>
       <c r="I6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J6">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="K6">
         <v>10.9</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2488,7 +2506,7 @@
         <v>60.5</v>
       </c>
       <c r="D7">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -2503,16 +2521,16 @@
         <v>23.1</v>
       </c>
       <c r="I7">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J7">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="K7">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>65.5</v>
       </c>
       <c r="C8">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D8">
         <v>55.7</v>
@@ -2544,10 +2562,10 @@
         <v>31.7</v>
       </c>
       <c r="K8">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2605,7 +2623,7 @@
         <v>36.4</v>
       </c>
       <c r="H10">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -2617,7 +2635,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2637,13 +2655,13 @@
         <v>55.4</v>
       </c>
       <c r="G11">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H11">
         <v>21.7</v>
       </c>
       <c r="I11">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="J11">
         <v>32.9</v>
@@ -2652,7 +2670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2687,7 +2705,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2713,16 +2731,16 @@
         <v>25.4</v>
       </c>
       <c r="I13">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J13">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2812,7 +2830,7 @@
         <v>55.5</v>
       </c>
       <c r="G16">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H16">
         <v>16.3</v>
@@ -2827,7 +2845,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2847,13 +2865,13 @@
         <v>56.3</v>
       </c>
       <c r="G17">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="H17">
         <v>20.9</v>
       </c>
       <c r="I17">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J17">
         <v>33.9</v>
@@ -2862,7 +2880,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>47.7</v>
       </c>
       <c r="E18">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="F18">
         <v>49.1</v>
@@ -2888,7 +2906,7 @@
         <v>24.8</v>
       </c>
       <c r="I18">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J18">
         <v>34.9</v>
@@ -2897,7 +2915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2926,13 +2944,13 @@
         <v>17.2</v>
       </c>
       <c r="J19">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="K19">
         <v>11.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2955,7 +2973,7 @@
         <v>42.6</v>
       </c>
       <c r="H20">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I20">
         <v>18.5</v>
@@ -2967,7 +2985,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3002,18 +3020,18 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C22">
         <v>57.8</v>
       </c>
       <c r="D22">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3037,7 +3055,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3072,7 +3090,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3142,7 +3160,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3168,7 +3186,7 @@
         <v>21.4</v>
       </c>
       <c r="I26">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="J26">
         <v>31.1</v>
@@ -3177,7 +3195,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3244,10 +3262,10 @@
         <v>30</v>
       </c>
       <c r="K28">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3293,7 +3311,7 @@
         <v>59.7</v>
       </c>
       <c r="D30">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E30">
         <v>61.9</v>
@@ -3308,7 +3326,7 @@
         <v>22.8</v>
       </c>
       <c r="I30">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J30">
         <v>32.4</v>
@@ -3317,7 +3335,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3343,7 +3361,7 @@
         <v>25.5</v>
       </c>
       <c r="I31">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="J31">
         <v>34</v>
@@ -3352,7 +3370,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>55.7</v>
       </c>
       <c r="D32">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E32">
         <v>61.8</v>
@@ -3378,16 +3396,16 @@
         <v>26.2</v>
       </c>
       <c r="I32">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J32">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="K32">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3410,13 +3428,13 @@
         <v>46.9</v>
       </c>
       <c r="H33">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I33">
         <v>17.8</v>
       </c>
       <c r="J33">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="K33">
         <v>13.9</v>
@@ -3428,14 +3446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3500,7 +3518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -3532,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -3564,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -3575,7 +3593,7 @@
         <v>3.4</v>
       </c>
       <c r="D4">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3587,7 +3605,7 @@
         <v>3.4</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3596,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3628,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -3636,7 +3654,7 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D6">
         <v>6.1</v>
@@ -3648,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H6">
         <v>6.1</v>
@@ -3660,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3692,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3724,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -3756,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3788,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -3796,7 +3814,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D11">
         <v>7.7</v>
@@ -3808,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H11">
         <v>7.7</v>
@@ -3820,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3852,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>43</v>
       </c>
       <c r="C14">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D14">
         <v>7.2</v>
@@ -3904,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H14">
         <v>7.2</v>
@@ -3916,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -3948,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -3956,7 +3974,7 @@
         <v>43</v>
       </c>
       <c r="C16">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D16">
         <v>5.3</v>
@@ -3968,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H16">
         <v>5.3</v>
@@ -3980,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D17">
         <v>6.2</v>
@@ -4000,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H17">
         <v>6.2</v>
@@ -4012,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -4044,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4076,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -4087,7 +4105,7 @@
         <v>8.6</v>
       </c>
       <c r="D20">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4099,7 +4117,7 @@
         <v>8.6</v>
       </c>
       <c r="H20">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4108,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -4140,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4172,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -4180,7 +4198,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D23">
         <v>6.7</v>
@@ -4192,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H23">
         <v>6.7</v>
@@ -4204,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -4215,7 +4233,7 @@
         <v>1.2</v>
       </c>
       <c r="D24">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4227,7 +4245,7 @@
         <v>1.2</v>
       </c>
       <c r="H24">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4236,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4268,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -4300,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -4332,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -4364,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -4396,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4428,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -4460,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -4492,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -4524,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -4556,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -4588,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -4620,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -4652,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -4684,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -4692,7 +4710,7 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D39">
         <v>6.7</v>
@@ -4704,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H39">
         <v>6.7</v>
@@ -4716,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -4748,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -4759,7 +4777,7 @@
         <v>5.6</v>
       </c>
       <c r="D41">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -4771,7 +4789,7 @@
         <v>5.6</v>
       </c>
       <c r="H41">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4780,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -4791,7 +4809,7 @@
         <v>9.1</v>
       </c>
       <c r="D42">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4803,7 +4821,7 @@
         <v>9.1</v>
       </c>
       <c r="H42">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4812,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -4844,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -4876,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -4908,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4940,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -4948,7 +4966,7 @@
         <v>31</v>
       </c>
       <c r="C47">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D47">
         <v>8.1</v>
@@ -4960,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H47">
         <v>8.1</v>
@@ -4972,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -5004,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -5036,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -5068,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -5100,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5132,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -5164,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -5196,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -5228,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -5260,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -5292,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -5300,7 +5318,7 @@
         <v>25</v>
       </c>
       <c r="C58">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D58">
         <v>8.5</v>
@@ -5312,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H58">
         <v>8.5</v>
@@ -5324,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -5332,7 +5350,7 @@
         <v>34</v>
       </c>
       <c r="C59">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D59">
         <v>6.2</v>
@@ -5344,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H59">
         <v>6.2</v>
@@ -5356,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -5388,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -5420,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -5452,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -5484,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -5516,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -5527,7 +5545,7 @@
         <v>4.2</v>
       </c>
       <c r="D65">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5539,7 +5557,7 @@
         <v>4.2</v>
       </c>
       <c r="H65">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -5548,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -5580,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -5612,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -5644,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -5676,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -5708,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -5740,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -5772,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -5804,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -5836,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -5868,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -5900,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -5938,14 +5956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6007,7 +6025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -6018,7 +6036,7 @@
         <v>481</v>
       </c>
       <c r="D2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2">
         <v>8.6</v>
@@ -6030,13 +6048,13 @@
         <v>7.5</v>
       </c>
       <c r="H2">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -6065,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6094,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -6152,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -6163,7 +6181,7 @@
         <v>481</v>
       </c>
       <c r="D7">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E7">
         <v>9.9</v>
@@ -6175,13 +6193,13 @@
         <v>56.8</v>
       </c>
       <c r="H7">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>482</v>
       </c>
       <c r="D8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E8">
         <v>10.4</v>
@@ -6201,16 +6219,16 @@
         <v>3.4</v>
       </c>
       <c r="G8">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H8">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -6230,16 +6248,16 @@
         <v>5.9</v>
       </c>
       <c r="G9">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="H9">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -6268,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -6291,13 +6309,13 @@
         <v>16.5</v>
       </c>
       <c r="H11">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -6326,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -6346,7 +6364,7 @@
         <v>0.4</v>
       </c>
       <c r="G13">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -6355,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -6378,13 +6396,13 @@
         <v>68.5</v>
       </c>
       <c r="H14">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -6413,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -6442,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -6465,13 +6483,13 @@
         <v>12.6</v>
       </c>
       <c r="H17">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -6491,7 +6509,7 @@
         <v>0.4</v>
       </c>
       <c r="G18">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -6500,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -6529,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -6549,16 +6567,16 @@
         <v>6.1</v>
       </c>
       <c r="G20">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="H20">
-        <v>0.833</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -6587,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -6598,7 +6616,7 @@
         <v>481</v>
       </c>
       <c r="D22">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -6610,13 +6628,13 @@
         <v>12</v>
       </c>
       <c r="H22">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -6630,10 +6648,10 @@
         <v>6.1</v>
       </c>
       <c r="E23">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F23">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G23">
         <v>42.1</v>
@@ -6645,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -6656,7 +6674,7 @@
         <v>481</v>
       </c>
       <c r="D24">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E24">
         <v>13.8</v>
@@ -6674,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -6697,13 +6715,13 @@
         <v>28</v>
       </c>
       <c r="H25">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -6720,7 +6738,7 @@
         <v>5.8</v>
       </c>
       <c r="F26">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G26">
         <v>6.2</v>
@@ -6732,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -6761,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -6784,13 +6802,13 @@
         <v>38.9</v>
       </c>
       <c r="H28">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -6816,7 +6834,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -6827,10 +6845,10 @@
         <v>482</v>
       </c>
       <c r="D30">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E30">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F30">
         <v>3.1</v>
@@ -6839,13 +6857,13 @@
         <v>28.2</v>
       </c>
       <c r="H30">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -6856,10 +6874,10 @@
         <v>482</v>
       </c>
       <c r="D31">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E31">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F31">
         <v>3.8</v>
@@ -6868,13 +6886,13 @@
         <v>39.1</v>
       </c>
       <c r="H31">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -6903,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -6932,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -6943,7 +6961,7 @@
         <v>481</v>
       </c>
       <c r="D34">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -6961,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -6984,13 +7002,13 @@
         <v>22.2</v>
       </c>
       <c r="H35">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -7001,7 +7019,7 @@
         <v>482</v>
       </c>
       <c r="D36">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E36">
         <v>12.8</v>
@@ -7013,13 +7031,13 @@
         <v>35.4</v>
       </c>
       <c r="H36">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -7042,13 +7060,13 @@
         <v>80.3</v>
       </c>
       <c r="H37">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="I37">
         <v>30.7</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -7059,7 +7077,7 @@
         <v>482</v>
       </c>
       <c r="D38">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -7071,13 +7089,13 @@
         <v>38.4</v>
       </c>
       <c r="H38">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -7106,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -7117,13 +7135,13 @@
         <v>481</v>
       </c>
       <c r="D40">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E40">
         <v>19.2</v>
       </c>
       <c r="F40">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G40">
         <v>42.8</v>
@@ -7135,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -7164,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -7193,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -7204,7 +7222,7 @@
         <v>481</v>
       </c>
       <c r="D43">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E43">
         <v>9.4</v>
@@ -7213,7 +7231,7 @@
         <v>0.9</v>
       </c>
       <c r="G43">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -7222,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -7251,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -7274,13 +7292,13 @@
         <v>30.8</v>
       </c>
       <c r="H45">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -7303,13 +7321,13 @@
         <v>1.8</v>
       </c>
       <c r="H46">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -7323,22 +7341,22 @@
         <v>3.3</v>
       </c>
       <c r="E47">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F47">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G47">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H47">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -7367,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -7390,13 +7408,13 @@
         <v>31.7</v>
       </c>
       <c r="H49">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>183</v>
       </c>
@@ -7419,13 +7437,13 @@
         <v>47.4</v>
       </c>
       <c r="H50">
-        <v>0.533</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -7436,7 +7454,7 @@
         <v>481</v>
       </c>
       <c r="D51">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E51">
         <v>9.4</v>
@@ -7448,13 +7466,13 @@
         <v>36.5</v>
       </c>
       <c r="H51">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -7468,13 +7486,13 @@
         <v>1.2</v>
       </c>
       <c r="E52">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -7483,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -7506,13 +7524,13 @@
         <v>28.2</v>
       </c>
       <c r="H53">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -7535,13 +7553,13 @@
         <v>20.6</v>
       </c>
       <c r="H54">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>188</v>
       </c>
@@ -7570,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -7593,13 +7611,13 @@
         <v>8.6</v>
       </c>
       <c r="H56">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -7628,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -7657,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -7677,16 +7695,16 @@
         <v>0.5</v>
       </c>
       <c r="G59">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H59">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -7715,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -7744,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -7773,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -7802,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -7831,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -7854,13 +7872,13 @@
         <v>27.9</v>
       </c>
       <c r="H65">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -7889,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -7918,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -7938,16 +7956,16 @@
         <v>1.7</v>
       </c>
       <c r="G68">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H68">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -7970,13 +7988,13 @@
         <v>5.9</v>
       </c>
       <c r="H69">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -7999,13 +8017,13 @@
         <v>90.2</v>
       </c>
       <c r="H70">
-        <v>0.588</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="I70">
         <v>29.8</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -8034,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -8045,7 +8063,7 @@
         <v>481</v>
       </c>
       <c r="D72">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E72">
         <v>12.2</v>
@@ -8054,16 +8072,16 @@
         <v>2.9</v>
       </c>
       <c r="G72">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H72">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -8092,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -8115,13 +8133,13 @@
         <v>32.1</v>
       </c>
       <c r="H74">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -8135,7 +8153,7 @@
         <v>1.6</v>
       </c>
       <c r="E75">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F75">
         <v>1.4</v>
@@ -8150,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -8179,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -8202,13 +8220,13 @@
         <v>35.5</v>
       </c>
       <c r="H77">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -8228,16 +8246,16 @@
         <v>0.5</v>
       </c>
       <c r="G78">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H78">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -8266,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -8289,13 +8307,13 @@
         <v>31.3</v>
       </c>
       <c r="H80">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -8318,13 +8336,13 @@
         <v>17</v>
       </c>
       <c r="H81">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -8338,22 +8356,22 @@
         <v>2.9</v>
       </c>
       <c r="E82">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F82">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G82">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H82">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>216</v>
       </c>
@@ -8382,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>217</v>
       </c>
@@ -8396,7 +8414,7 @@
         <v>0.8</v>
       </c>
       <c r="E84">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F84">
         <v>0.6</v>
@@ -8405,13 +8423,13 @@
         <v>5.7</v>
       </c>
       <c r="H84">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>218</v>
       </c>
@@ -8440,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>219</v>
       </c>
@@ -8457,7 +8475,7 @@
         <v>10.7</v>
       </c>
       <c r="F86">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G86">
         <v>43.7</v>
@@ -8469,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>220</v>
       </c>
@@ -8492,13 +8510,13 @@
         <v>52.1</v>
       </c>
       <c r="H87">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -8527,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>222</v>
       </c>
@@ -8550,13 +8568,13 @@
         <v>14</v>
       </c>
       <c r="H89">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -8585,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>224</v>
       </c>
@@ -8602,19 +8620,19 @@
         <v>10.8</v>
       </c>
       <c r="F91">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G91">
         <v>54.7</v>
       </c>
       <c r="H91">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>225</v>
       </c>
@@ -8628,13 +8646,13 @@
         <v>1.3</v>
       </c>
       <c r="E92">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F92">
         <v>0.9</v>
       </c>
       <c r="G92">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8643,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>226</v>
       </c>
@@ -8654,7 +8672,7 @@
         <v>481</v>
       </c>
       <c r="D93">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E93">
         <v>22.6</v>
@@ -8672,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>227</v>
       </c>
@@ -8701,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>228</v>
       </c>
@@ -8712,7 +8730,7 @@
         <v>481</v>
       </c>
       <c r="D95">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E95">
         <v>14.7</v>
@@ -8721,7 +8739,7 @@
         <v>2.4</v>
       </c>
       <c r="G95">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H95">
         <v>0.125</v>
@@ -8730,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>229</v>
       </c>
@@ -8753,13 +8771,13 @@
         <v>1.6</v>
       </c>
       <c r="H96">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>230</v>
       </c>
@@ -8788,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>231</v>
       </c>
@@ -8817,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -8846,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>233</v>
       </c>
@@ -8875,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -8898,13 +8916,13 @@
         <v>7.7</v>
       </c>
       <c r="H101">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -8924,7 +8942,7 @@
         <v>6.7</v>
       </c>
       <c r="G102">
-        <v>79.59999999999999</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="H102">
         <v>0.4</v>
@@ -8933,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>236</v>
       </c>
@@ -8962,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -8991,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>238</v>
       </c>
@@ -9014,13 +9032,13 @@
         <v>11.5</v>
       </c>
       <c r="H105">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>239</v>
       </c>
@@ -9043,13 +9061,13 @@
         <v>24.7</v>
       </c>
       <c r="H106">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>240</v>
       </c>
@@ -9072,13 +9090,13 @@
         <v>11.1</v>
       </c>
       <c r="H107">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>241</v>
       </c>
@@ -9095,7 +9113,7 @@
         <v>10.7</v>
       </c>
       <c r="F108">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G108">
         <v>11.6</v>
@@ -9107,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>242</v>
       </c>
@@ -9130,13 +9148,13 @@
         <v>71.7</v>
       </c>
       <c r="H109">
-        <v>0.786</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="I109">
         <v>19.5</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>243</v>
       </c>
@@ -9165,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>244</v>
       </c>
@@ -9188,13 +9206,13 @@
         <v>49.6</v>
       </c>
       <c r="H111">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>245</v>
       </c>
@@ -9223,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>246</v>
       </c>
@@ -9237,7 +9255,7 @@
         <v>5.8</v>
       </c>
       <c r="E113">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F113">
         <v>3.4</v>
@@ -9252,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>247</v>
       </c>
@@ -9281,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>248</v>
       </c>
@@ -9310,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>249</v>
       </c>
@@ -9339,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -9368,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>251</v>
       </c>
@@ -9385,19 +9403,19 @@
         <v>15</v>
       </c>
       <c r="F118">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G118">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="H118">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>252</v>
       </c>
@@ -9426,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>253</v>
       </c>
@@ -9455,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -9472,19 +9490,19 @@
         <v>10.5</v>
       </c>
       <c r="F121">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G121">
         <v>11.8</v>
       </c>
       <c r="H121">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>255</v>
       </c>
@@ -9507,13 +9525,13 @@
         <v>6.4</v>
       </c>
       <c r="H122">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>256</v>
       </c>
@@ -9533,7 +9551,7 @@
         <v>1.8</v>
       </c>
       <c r="G123">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H123">
         <v>0.125</v>
@@ -9542,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>257</v>
       </c>
@@ -9556,7 +9574,7 @@
         <v>0.8</v>
       </c>
       <c r="E124">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F124">
         <v>0.5</v>
@@ -9571,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>258</v>
       </c>
@@ -9600,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>259</v>
       </c>
@@ -9611,7 +9629,7 @@
         <v>481</v>
       </c>
       <c r="D126">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E126">
         <v>14.8</v>
@@ -9623,13 +9641,13 @@
         <v>83.8</v>
       </c>
       <c r="H126">
-        <v>0.583</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -9643,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="E127">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F127">
         <v>0.6</v>
@@ -9658,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>261</v>
       </c>
@@ -9687,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>262</v>
       </c>
@@ -9716,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>263</v>
       </c>
@@ -9739,13 +9757,13 @@
         <v>73.7</v>
       </c>
       <c r="H130">
-        <v>0.533</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="I130">
         <v>18.3</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>264</v>
       </c>
@@ -9768,13 +9786,13 @@
         <v>16.2</v>
       </c>
       <c r="H131">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>265</v>
       </c>
@@ -9797,13 +9815,13 @@
         <v>14.1</v>
       </c>
       <c r="H132">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -9814,7 +9832,7 @@
         <v>481</v>
       </c>
       <c r="D133">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E133">
         <v>11.1</v>
@@ -9826,13 +9844,13 @@
         <v>40.4</v>
       </c>
       <c r="H133">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -9861,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -9890,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>269</v>
       </c>
@@ -9910,16 +9928,16 @@
         <v>2.1</v>
       </c>
       <c r="G136">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H136">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -9936,19 +9954,19 @@
         <v>10.6</v>
       </c>
       <c r="F137">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G137">
         <v>24.4</v>
       </c>
       <c r="H137">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>271</v>
       </c>
@@ -9977,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>272</v>
       </c>
@@ -9988,7 +10006,7 @@
         <v>482</v>
       </c>
       <c r="D139">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E139">
         <v>8.9</v>
@@ -10000,13 +10018,13 @@
         <v>14.6</v>
       </c>
       <c r="H139">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>273</v>
       </c>
@@ -10035,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>274</v>
       </c>
@@ -10058,13 +10076,13 @@
         <v>82.3</v>
       </c>
       <c r="H141">
-        <v>0.714</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>275</v>
       </c>
@@ -10093,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>276</v>
       </c>
@@ -10116,13 +10134,13 @@
         <v>27.6</v>
       </c>
       <c r="H143">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>277</v>
       </c>
@@ -10145,13 +10163,13 @@
         <v>2.4</v>
       </c>
       <c r="H144">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>278</v>
       </c>
@@ -10180,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>279</v>
       </c>
@@ -10209,7 +10227,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>280</v>
       </c>
@@ -10238,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>281</v>
       </c>
@@ -10261,13 +10279,13 @@
         <v>52</v>
       </c>
       <c r="H148">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="I148">
         <v>19.5</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>282</v>
       </c>
@@ -10281,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="E149">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F149">
         <v>0.8</v>
@@ -10296,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>283</v>
       </c>
@@ -10310,7 +10328,7 @@
         <v>1.2</v>
       </c>
       <c r="E150">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F150">
         <v>0.6</v>
@@ -10325,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>284</v>
       </c>
@@ -10354,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>285</v>
       </c>
@@ -10377,13 +10395,13 @@
         <v>13.2</v>
       </c>
       <c r="H152">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>286</v>
       </c>
@@ -10412,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>287</v>
       </c>
@@ -10432,16 +10450,16 @@
         <v>1.4</v>
       </c>
       <c r="G154">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H154">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>288</v>
       </c>
@@ -10455,7 +10473,7 @@
         <v>4.5</v>
       </c>
       <c r="E155">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F155">
         <v>3.2</v>
@@ -10470,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -10499,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>290</v>
       </c>
@@ -10522,13 +10540,13 @@
         <v>36.5</v>
       </c>
       <c r="H157">
-        <v>0.231</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>291</v>
       </c>
@@ -10548,7 +10566,7 @@
         <v>4.2</v>
       </c>
       <c r="G158">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -10557,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>292</v>
       </c>
@@ -10586,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>293</v>
       </c>
@@ -10615,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>294</v>
       </c>
@@ -10638,13 +10656,13 @@
         <v>59.8</v>
       </c>
       <c r="H161">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>295</v>
       </c>
@@ -10658,7 +10676,7 @@
         <v>0.9</v>
       </c>
       <c r="E162">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F162">
         <v>0.8</v>
@@ -10667,13 +10685,13 @@
         <v>6.8</v>
       </c>
       <c r="H162">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>296</v>
       </c>
@@ -10684,7 +10702,7 @@
         <v>482</v>
       </c>
       <c r="D163">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E163">
         <v>10.3</v>
@@ -10693,7 +10711,7 @@
         <v>6.9</v>
       </c>
       <c r="G163">
-        <v>71.59999999999999</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H163">
         <v>0.125</v>
@@ -10702,7 +10720,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>297</v>
       </c>
@@ -10731,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>298</v>
       </c>
@@ -10748,19 +10766,19 @@
         <v>12.9</v>
       </c>
       <c r="F165">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G165">
         <v>29.6</v>
       </c>
       <c r="H165">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>299</v>
       </c>
@@ -10789,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>300</v>
       </c>
@@ -10812,13 +10830,13 @@
         <v>64.5</v>
       </c>
       <c r="H167">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="I167">
         <v>23.2</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>301</v>
       </c>
@@ -10847,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>302</v>
       </c>
@@ -10858,7 +10876,7 @@
         <v>481</v>
       </c>
       <c r="D169">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E169">
         <v>12.4</v>
@@ -10870,13 +10888,13 @@
         <v>35.9</v>
       </c>
       <c r="H169">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>303</v>
       </c>
@@ -10905,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>304</v>
       </c>
@@ -10925,7 +10943,7 @@
         <v>0.1</v>
       </c>
       <c r="G171">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -10934,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>305</v>
       </c>
@@ -10954,16 +10972,16 @@
         <v>6.1</v>
       </c>
       <c r="G172">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H172">
-        <v>0.636</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>306</v>
       </c>
@@ -10986,13 +11004,13 @@
         <v>14.2</v>
       </c>
       <c r="H173">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>307</v>
       </c>
@@ -11021,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>308</v>
       </c>
@@ -11041,16 +11059,16 @@
         <v>2.9</v>
       </c>
       <c r="G175">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H175">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>309</v>
       </c>
@@ -11079,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>310</v>
       </c>
@@ -11108,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>311</v>
       </c>
@@ -11122,7 +11140,7 @@
         <v>3.4</v>
       </c>
       <c r="E178">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F178">
         <v>1.4</v>
@@ -11137,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>312</v>
       </c>
@@ -11166,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>313</v>
       </c>
@@ -11177,10 +11195,10 @@
         <v>482</v>
       </c>
       <c r="D180">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E180">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F180">
         <v>1.8</v>
@@ -11189,13 +11207,13 @@
         <v>14.4</v>
       </c>
       <c r="H180">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>314</v>
       </c>
@@ -11218,13 +11236,13 @@
         <v>6</v>
       </c>
       <c r="H181">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>315</v>
       </c>
@@ -11247,13 +11265,13 @@
         <v>10.1</v>
       </c>
       <c r="H182">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>316</v>
       </c>
@@ -11282,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>317</v>
       </c>
@@ -11311,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>318</v>
       </c>
@@ -11340,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>319</v>
       </c>
@@ -11363,13 +11381,13 @@
         <v>36.4</v>
       </c>
       <c r="H186">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>320</v>
       </c>
@@ -11392,13 +11410,13 @@
         <v>8.9</v>
       </c>
       <c r="H187">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>321</v>
       </c>
@@ -11418,7 +11436,7 @@
         <v>1.4</v>
       </c>
       <c r="G188">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -11427,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>322</v>
       </c>
@@ -11444,19 +11462,19 @@
         <v>7.5</v>
       </c>
       <c r="F189">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G189">
         <v>8.4</v>
       </c>
       <c r="H189">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>323</v>
       </c>
@@ -11479,13 +11497,13 @@
         <v>63.6</v>
       </c>
       <c r="H190">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -11514,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>325</v>
       </c>
@@ -11528,7 +11546,7 @@
         <v>0.7</v>
       </c>
       <c r="E192">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F192">
         <v>0.7</v>
@@ -11543,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>326</v>
       </c>
@@ -11566,13 +11584,13 @@
         <v>21.4</v>
       </c>
       <c r="H193">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>327</v>
       </c>
@@ -11601,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>328</v>
       </c>
@@ -11624,13 +11642,13 @@
         <v>17.5</v>
       </c>
       <c r="H195">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>329</v>
       </c>
@@ -11647,19 +11665,19 @@
         <v>14.3</v>
       </c>
       <c r="F196">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G196">
         <v>62.3</v>
       </c>
       <c r="H196">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>330</v>
       </c>
@@ -11673,7 +11691,7 @@
         <v>1.6</v>
       </c>
       <c r="E197">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F197">
         <v>0.8</v>
@@ -11688,7 +11706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>331</v>
       </c>
@@ -11711,13 +11729,13 @@
         <v>5.9</v>
       </c>
       <c r="H198">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>332</v>
       </c>
@@ -11746,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>333</v>
       </c>
@@ -11775,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>334</v>
       </c>
@@ -11789,7 +11807,7 @@
         <v>1.2</v>
       </c>
       <c r="E201">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F201">
         <v>0.8</v>
@@ -11804,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>335</v>
       </c>
@@ -11827,13 +11845,13 @@
         <v>37.5</v>
       </c>
       <c r="H202">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>336</v>
       </c>
@@ -11853,16 +11871,16 @@
         <v>0.3</v>
       </c>
       <c r="G203">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H203">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>337</v>
       </c>
@@ -11876,7 +11894,7 @@
         <v>6.2</v>
       </c>
       <c r="E204">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F204">
         <v>4.2</v>
@@ -11885,13 +11903,13 @@
         <v>42.9</v>
       </c>
       <c r="H204">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>338</v>
       </c>
@@ -11920,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>339</v>
       </c>
@@ -11943,13 +11961,13 @@
         <v>66.5</v>
       </c>
       <c r="H206">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>340</v>
       </c>
@@ -11978,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>341</v>
       </c>
@@ -12007,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>342</v>
       </c>
@@ -12030,13 +12048,13 @@
         <v>11.4</v>
       </c>
       <c r="H209">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>343</v>
       </c>
@@ -12059,13 +12077,13 @@
         <v>8.1</v>
       </c>
       <c r="H210">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>344</v>
       </c>
@@ -12094,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>345</v>
       </c>
@@ -12123,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>346</v>
       </c>
@@ -12134,7 +12152,7 @@
         <v>482</v>
       </c>
       <c r="D213">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E213">
         <v>12.2</v>
@@ -12146,13 +12164,13 @@
         <v>39.6</v>
       </c>
       <c r="H213">
-        <v>0.647</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="I213">
         <v>15.1</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>347</v>
       </c>
@@ -12175,13 +12193,13 @@
         <v>25.7</v>
       </c>
       <c r="H214">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>348</v>
       </c>
@@ -12201,16 +12219,16 @@
         <v>5.2</v>
       </c>
       <c r="G215">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="H215">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>349</v>
       </c>
@@ -12233,13 +12251,13 @@
         <v>4.5</v>
       </c>
       <c r="H216">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>350</v>
       </c>
@@ -12268,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>351</v>
       </c>
@@ -12288,16 +12306,16 @@
         <v>0.6</v>
       </c>
       <c r="G218">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H218">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>352</v>
       </c>
@@ -12326,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>353</v>
       </c>
@@ -12355,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>354</v>
       </c>
@@ -12384,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>355</v>
       </c>
@@ -12413,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>356</v>
       </c>
@@ -12430,7 +12448,7 @@
         <v>14</v>
       </c>
       <c r="F223">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G223">
         <v>71.8</v>
@@ -12442,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>357</v>
       </c>
@@ -12471,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>358</v>
       </c>
@@ -12500,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>359</v>
       </c>
@@ -12523,13 +12541,13 @@
         <v>16.5</v>
       </c>
       <c r="H226">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>360</v>
       </c>
@@ -12546,7 +12564,7 @@
         <v>11.4</v>
       </c>
       <c r="F227">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G227">
         <v>12.7</v>
@@ -12558,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>361</v>
       </c>
@@ -12587,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>362</v>
       </c>
@@ -12616,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>363</v>
       </c>
@@ -12639,13 +12657,13 @@
         <v>90</v>
       </c>
       <c r="H230">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>364</v>
       </c>
@@ -12674,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>365</v>
       </c>
@@ -12691,7 +12709,7 @@
         <v>13</v>
       </c>
       <c r="F232">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G232">
         <v>13.9</v>
@@ -12703,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>366</v>
       </c>
@@ -12732,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>367</v>
       </c>
@@ -12743,7 +12761,7 @@
         <v>481</v>
       </c>
       <c r="D234">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E234">
         <v>7.5</v>
@@ -12755,13 +12773,13 @@
         <v>41.1</v>
       </c>
       <c r="H234">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>368</v>
       </c>
@@ -12790,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>369</v>
       </c>
@@ -12819,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>370</v>
       </c>
@@ -12848,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>371</v>
       </c>
@@ -12871,13 +12889,13 @@
         <v>2.4</v>
       </c>
       <c r="H238">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>372</v>
       </c>
@@ -12897,7 +12915,7 @@
         <v>0.3</v>
       </c>
       <c r="G239">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -12906,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>373</v>
       </c>
@@ -12929,13 +12947,13 @@
         <v>3.3</v>
       </c>
       <c r="H240">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>374</v>
       </c>
@@ -12964,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>375</v>
       </c>
@@ -12993,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>376</v>
       </c>
@@ -13016,13 +13034,13 @@
         <v>24.2</v>
       </c>
       <c r="H243">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>377</v>
       </c>
@@ -13045,13 +13063,13 @@
         <v>43.2</v>
       </c>
       <c r="H244">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>378</v>
       </c>
@@ -13080,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>379</v>
       </c>
@@ -13109,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>380</v>
       </c>
@@ -13138,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>381</v>
       </c>
@@ -13152,7 +13170,7 @@
         <v>2</v>
       </c>
       <c r="E248">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F248">
         <v>1.3</v>
@@ -13167,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>382</v>
       </c>
@@ -13190,13 +13208,13 @@
         <v>7.9</v>
       </c>
       <c r="H249">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>383</v>
       </c>
@@ -13210,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="E250">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F250">
         <v>0.8</v>
@@ -13219,13 +13237,13 @@
         <v>6.3</v>
       </c>
       <c r="H250">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>384</v>
       </c>
@@ -13248,13 +13266,13 @@
         <v>24.4</v>
       </c>
       <c r="H251">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>385</v>
       </c>
@@ -13283,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>386</v>
       </c>
@@ -13294,7 +13312,7 @@
         <v>481</v>
       </c>
       <c r="D253">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E253">
         <v>11.7</v>
@@ -13303,7 +13321,7 @@
         <v>2.9</v>
       </c>
       <c r="G253">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="H253">
         <v>0.25</v>
@@ -13312,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>387</v>
       </c>
@@ -13323,7 +13341,7 @@
         <v>482</v>
       </c>
       <c r="D254">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E254">
         <v>14.1</v>
@@ -13335,13 +13353,13 @@
         <v>41.6</v>
       </c>
       <c r="H254">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I254">
         <v>15.1</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>388</v>
       </c>
@@ -13355,7 +13373,7 @@
         <v>6</v>
       </c>
       <c r="E255">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F255">
         <v>3.6</v>
@@ -13364,13 +13382,13 @@
         <v>31.6</v>
       </c>
       <c r="H255">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>389</v>
       </c>
@@ -13381,7 +13399,7 @@
         <v>481</v>
       </c>
       <c r="D256">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E256">
         <v>12.9</v>
@@ -13393,13 +13411,13 @@
         <v>41.2</v>
       </c>
       <c r="H256">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>390</v>
       </c>
@@ -13428,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>391</v>
       </c>
@@ -13457,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>392</v>
       </c>
@@ -13486,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>393</v>
       </c>
@@ -13515,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>394</v>
       </c>
@@ -13529,7 +13547,7 @@
         <v>3.4</v>
       </c>
       <c r="E261">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F261">
         <v>2.4</v>
@@ -13538,13 +13556,13 @@
         <v>22.9</v>
       </c>
       <c r="H261">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>395</v>
       </c>
@@ -13573,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>396</v>
       </c>
@@ -13602,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>397</v>
       </c>
@@ -13631,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>398</v>
       </c>
@@ -13660,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>399</v>
       </c>
@@ -13680,16 +13698,16 @@
         <v>1.4</v>
       </c>
       <c r="G266">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H266">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>400</v>
       </c>
@@ -13712,13 +13730,13 @@
         <v>44.5</v>
       </c>
       <c r="H267">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>401</v>
       </c>
@@ -13735,7 +13753,7 @@
         <v>12.7</v>
       </c>
       <c r="F268">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G268">
         <v>65</v>
@@ -13747,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>402</v>
       </c>
@@ -13776,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>403</v>
       </c>
@@ -13787,7 +13805,7 @@
         <v>482</v>
       </c>
       <c r="D270">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E270">
         <v>8.5</v>
@@ -13805,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>404</v>
       </c>
@@ -13825,7 +13843,7 @@
         <v>2.9</v>
       </c>
       <c r="G271">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H271">
         <v>0.2</v>
@@ -13834,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>405</v>
       </c>
@@ -13851,19 +13869,19 @@
         <v>10.9</v>
       </c>
       <c r="F272">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G272">
         <v>25.4</v>
       </c>
       <c r="H272">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>406</v>
       </c>
@@ -13886,13 +13904,13 @@
         <v>38.5</v>
       </c>
       <c r="H273">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I273">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>407</v>
       </c>
@@ -13921,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>408</v>
       </c>
@@ -13950,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>409</v>
       </c>
@@ -13979,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>410</v>
       </c>
@@ -13990,7 +14008,7 @@
         <v>481</v>
       </c>
       <c r="D277">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E277">
         <v>10.6</v>
@@ -14008,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>411</v>
       </c>
@@ -14031,13 +14049,13 @@
         <v>24.3</v>
       </c>
       <c r="H278">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>412</v>
       </c>
@@ -14066,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>413</v>
       </c>
@@ -14095,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>414</v>
       </c>
@@ -14118,13 +14136,13 @@
         <v>17.2</v>
       </c>
       <c r="H281">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>415</v>
       </c>
@@ -14147,13 +14165,13 @@
         <v>29.2</v>
       </c>
       <c r="H282">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="I282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>416</v>
       </c>
@@ -14182,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>417</v>
       </c>
@@ -14199,10 +14217,10 @@
         <v>7.9</v>
       </c>
       <c r="F284">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G284">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -14211,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>418</v>
       </c>
@@ -14225,7 +14243,7 @@
         <v>4</v>
       </c>
       <c r="E285">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F285">
         <v>2.7</v>
@@ -14234,13 +14252,13 @@
         <v>22</v>
       </c>
       <c r="H285">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>419</v>
       </c>
@@ -14263,13 +14281,13 @@
         <v>66.7</v>
       </c>
       <c r="H286">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>420</v>
       </c>
@@ -14292,13 +14310,13 @@
         <v>19.3</v>
       </c>
       <c r="H287">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>421</v>
       </c>
@@ -14327,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>422</v>
       </c>
@@ -14356,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>423</v>
       </c>
@@ -14379,13 +14397,13 @@
         <v>70.2</v>
       </c>
       <c r="H290">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I290">
         <v>25.8</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>424</v>
       </c>
@@ -14408,13 +14426,13 @@
         <v>23</v>
       </c>
       <c r="H291">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>425</v>
       </c>
@@ -14437,13 +14455,13 @@
         <v>22.9</v>
       </c>
       <c r="H292">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>426</v>
       </c>
@@ -14454,7 +14472,7 @@
         <v>481</v>
       </c>
       <c r="D293">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E293">
         <v>12.7</v>
@@ -14466,13 +14484,13 @@
         <v>74.8</v>
       </c>
       <c r="H293">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="I293">
         <v>29.3</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>427</v>
       </c>
@@ -14489,7 +14507,7 @@
         <v>11.1</v>
       </c>
       <c r="F294">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G294">
         <v>45.5</v>
@@ -14501,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>428</v>
       </c>
@@ -14530,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>429</v>
       </c>
@@ -14559,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>430</v>
       </c>
@@ -14573,7 +14591,7 @@
         <v>7.5</v>
       </c>
       <c r="E297">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F297">
         <v>5.2</v>
@@ -14582,13 +14600,13 @@
         <v>83</v>
       </c>
       <c r="H297">
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="I297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>431</v>
       </c>
@@ -14617,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>432</v>
       </c>
@@ -14637,7 +14655,7 @@
         <v>0.1</v>
       </c>
       <c r="G299">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H299">
         <v>0.111</v>
@@ -14646,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>433</v>
       </c>
@@ -14675,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>434</v>
       </c>
@@ -14686,7 +14704,7 @@
         <v>482</v>
       </c>
       <c r="D301">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E301">
         <v>7.9</v>
@@ -14698,13 +14716,13 @@
         <v>45.9</v>
       </c>
       <c r="H301">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="I301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>435</v>
       </c>
@@ -14733,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>436</v>
       </c>
@@ -14762,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>437</v>
       </c>
@@ -14791,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>438</v>
       </c>
@@ -14820,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>439</v>
       </c>
@@ -14849,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>440</v>
       </c>
@@ -14878,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>441</v>
       </c>
@@ -14895,7 +14913,7 @@
         <v>22.3</v>
       </c>
       <c r="F308">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G308">
         <v>51.5</v>
@@ -14907,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>442</v>
       </c>
@@ -14924,19 +14942,19 @@
         <v>14.7</v>
       </c>
       <c r="F309">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G309">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="H309">
-        <v>0.588</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="I309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>443</v>
       </c>
@@ -14956,7 +14974,7 @@
         <v>0.5</v>
       </c>
       <c r="G310">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -14965,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>444</v>
       </c>
@@ -14988,13 +15006,13 @@
         <v>72.3</v>
       </c>
       <c r="H311">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="I311">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>445</v>
       </c>
@@ -15023,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>446</v>
       </c>
@@ -15052,7 +15070,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>447</v>
       </c>
@@ -15081,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>448</v>
       </c>
@@ -15092,7 +15110,7 @@
         <v>481</v>
       </c>
       <c r="D315">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E315">
         <v>15.6</v>
@@ -15104,13 +15122,13 @@
         <v>50.4</v>
       </c>
       <c r="H315">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I315">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>449</v>
       </c>
@@ -15121,7 +15139,7 @@
         <v>481</v>
       </c>
       <c r="D316">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E316">
         <v>7.3</v>
@@ -15133,13 +15151,13 @@
         <v>5.8</v>
       </c>
       <c r="H316">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>450</v>
       </c>
@@ -15168,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>451</v>
       </c>
@@ -15191,13 +15209,13 @@
         <v>56.4</v>
       </c>
       <c r="H318">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I318">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>452</v>
       </c>
@@ -15211,7 +15229,7 @@
         <v>2.9</v>
       </c>
       <c r="E319">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F319">
         <v>1.8</v>
@@ -15220,13 +15238,13 @@
         <v>17.3</v>
       </c>
       <c r="H319">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>453</v>
       </c>
@@ -15255,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>454</v>
       </c>
@@ -15284,7 +15302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>455</v>
       </c>
@@ -15307,13 +15325,13 @@
         <v>41.3</v>
       </c>
       <c r="H322">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>456</v>
       </c>
@@ -15342,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>457</v>
       </c>
@@ -15371,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>458</v>
       </c>
@@ -15400,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>459</v>
       </c>
@@ -15423,13 +15441,13 @@
         <v>49.6</v>
       </c>
       <c r="H326">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I326">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>460</v>
       </c>
@@ -15458,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>461</v>
       </c>
@@ -15481,13 +15499,13 @@
         <v>19.5</v>
       </c>
       <c r="H328">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>462</v>
       </c>
@@ -15516,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>463</v>
       </c>
@@ -15536,16 +15554,16 @@
         <v>1.3</v>
       </c>
       <c r="G330">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H330">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I330">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>464</v>
       </c>
@@ -15568,13 +15586,13 @@
         <v>29.7</v>
       </c>
       <c r="H331">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I331">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>465</v>
       </c>
@@ -15585,7 +15603,7 @@
         <v>481</v>
       </c>
       <c r="D332">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E332">
         <v>11</v>
@@ -15597,13 +15615,13 @@
         <v>74.3</v>
       </c>
       <c r="H332">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="I332">
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>466</v>
       </c>
@@ -15632,7 +15650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>467</v>
       </c>
@@ -15655,13 +15673,13 @@
         <v>6.4</v>
       </c>
       <c r="H334">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I334">
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>468</v>
       </c>
@@ -15690,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>469</v>
       </c>
@@ -15713,13 +15731,13 @@
         <v>10.1</v>
       </c>
       <c r="H336">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="I336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>470</v>
       </c>
@@ -15736,19 +15754,19 @@
         <v>11.2</v>
       </c>
       <c r="F337">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G337">
         <v>57.4</v>
       </c>
       <c r="H337">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I337">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>471</v>
       </c>
@@ -15762,7 +15780,7 @@
         <v>2.7</v>
       </c>
       <c r="E338">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F338">
         <v>1.9</v>
@@ -15771,13 +15789,13 @@
         <v>19.5</v>
       </c>
       <c r="H338">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="I338">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>472</v>
       </c>
@@ -15800,13 +15818,13 @@
         <v>29.8</v>
       </c>
       <c r="H339">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I339">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>473</v>
       </c>
@@ -15835,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>474</v>
       </c>
@@ -15864,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>475</v>
       </c>
@@ -15884,16 +15902,16 @@
         <v>0.4</v>
       </c>
       <c r="G342">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H342">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>476</v>
       </c>
@@ -15922,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>477</v>
       </c>
@@ -15951,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>478</v>
       </c>
@@ -15968,19 +15986,19 @@
         <v>10.4</v>
       </c>
       <c r="F345">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G345">
         <v>23.9</v>
       </c>
       <c r="H345">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I345">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>479</v>
       </c>
@@ -15994,10 +16012,10 @@
         <v>1.4</v>
       </c>
       <c r="E346">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F346">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G346">
         <v>9.9</v>
@@ -16009,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>480</v>
       </c>
@@ -16029,7 +16047,7 @@
         <v>1.4</v>
       </c>
       <c r="G347">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -16044,14 +16062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -16119,7 +16137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>485</v>
       </c>
@@ -16142,7 +16160,7 @@
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -16154,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>486</v>
       </c>
@@ -16189,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -16224,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>488</v>
       </c>
@@ -16250,16 +16268,16 @@
         <v>7.5</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J5">
         <v>16.7</v>
       </c>
       <c r="K5">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>489</v>
       </c>
@@ -16279,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H6">
         <v>2.6</v>
@@ -16294,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>490</v>
       </c>
@@ -16323,13 +16341,13 @@
         <v>0.8</v>
       </c>
       <c r="J7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -16364,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>492</v>
       </c>
@@ -16399,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>493</v>
       </c>
@@ -16422,19 +16440,19 @@
         <v>0.7</v>
       </c>
       <c r="H10">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I10">
         <v>0.5</v>
       </c>
       <c r="J10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K10">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>494</v>
       </c>
@@ -16466,10 +16484,10 @@
         <v>22.1</v>
       </c>
       <c r="K11">
-        <v>0.07099999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>495</v>
       </c>
@@ -16498,13 +16516,13 @@
         <v>0.6</v>
       </c>
       <c r="J12">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>496</v>
       </c>
@@ -16539,7 +16557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>497</v>
       </c>
@@ -16574,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>498</v>
       </c>
@@ -16606,10 +16624,10 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>499</v>
       </c>
@@ -16644,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>500</v>
       </c>
@@ -16679,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>501</v>
       </c>
@@ -16702,7 +16720,7 @@
         <v>3.1</v>
       </c>
       <c r="H18">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I18">
         <v>2.8</v>
@@ -16714,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>502</v>
       </c>
@@ -16749,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -16772,7 +16790,7 @@
         <v>3.1</v>
       </c>
       <c r="H20">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I20">
         <v>2.5</v>
@@ -16784,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -16813,13 +16831,13 @@
         <v>0.2</v>
       </c>
       <c r="J21">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>505</v>
       </c>
@@ -16854,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>506</v>
       </c>
@@ -16889,7 +16907,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>507</v>
       </c>
@@ -16921,10 +16939,10 @@
         <v>25.4</v>
       </c>
       <c r="K24">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -16959,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>509</v>
       </c>
@@ -16988,13 +17006,13 @@
         <v>0.2</v>
       </c>
       <c r="J26">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>510</v>
       </c>
@@ -17029,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>511</v>
       </c>
@@ -17064,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>512</v>
       </c>
@@ -17099,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>513</v>
       </c>
@@ -17134,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>514</v>
       </c>
@@ -17169,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>515</v>
       </c>
@@ -17198,13 +17216,13 @@
         <v>1.6</v>
       </c>
       <c r="J32">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="K32">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>516</v>
       </c>
@@ -17236,10 +17254,10 @@
         <v>4.3</v>
       </c>
       <c r="K33">
-        <v>0.167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>517</v>
       </c>
@@ -17259,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H34">
         <v>7.6</v>
@@ -17268,13 +17286,13 @@
         <v>1.3</v>
       </c>
       <c r="J34">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K34">
-        <v>0.07099999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>518</v>
       </c>
@@ -17309,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>519</v>
       </c>
@@ -17341,10 +17359,10 @@
         <v>27.2</v>
       </c>
       <c r="K36">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>520</v>
       </c>
@@ -17379,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>521</v>
       </c>
@@ -17414,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -17437,7 +17455,7 @@
         <v>1.2</v>
       </c>
       <c r="H39">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I39">
         <v>0.9</v>
@@ -17449,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>523</v>
       </c>
@@ -17478,13 +17496,13 @@
         <v>0.3</v>
       </c>
       <c r="J40">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>524</v>
       </c>
@@ -17507,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I41">
         <v>0.8</v>
@@ -17519,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>525</v>
       </c>
@@ -17554,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>526</v>
       </c>
@@ -17577,7 +17595,7 @@
         <v>0.8</v>
       </c>
       <c r="H43">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I43">
         <v>0.6</v>
@@ -17586,10 +17604,10 @@
         <v>2.8</v>
       </c>
       <c r="K43">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>527</v>
       </c>
@@ -17624,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>528</v>
       </c>
@@ -17659,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>529</v>
       </c>
@@ -17685,16 +17703,16 @@
         <v>7.8</v>
       </c>
       <c r="I46">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J46">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K46">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>530</v>
       </c>
@@ -17726,10 +17744,10 @@
         <v>0.6</v>
       </c>
       <c r="K47">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>531</v>
       </c>
@@ -17764,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>532</v>
       </c>
@@ -17793,13 +17811,13 @@
         <v>0.7</v>
       </c>
       <c r="J49">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>533</v>
       </c>
@@ -17819,7 +17837,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H50">
         <v>6.7</v>
@@ -17831,10 +17849,10 @@
         <v>6.2</v>
       </c>
       <c r="K50">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>534</v>
       </c>
@@ -17869,7 +17887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>535</v>
       </c>
@@ -17904,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>536</v>
       </c>
@@ -17939,7 +17957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>537</v>
       </c>
@@ -17965,16 +17983,16 @@
         <v>6.2</v>
       </c>
       <c r="I54">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J54">
         <v>13.5</v>
       </c>
       <c r="K54">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>538</v>
       </c>
@@ -18003,13 +18021,13 @@
         <v>2.1</v>
       </c>
       <c r="J55">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>539</v>
       </c>
@@ -18029,7 +18047,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H56">
         <v>6.6</v>
@@ -18044,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>540</v>
       </c>
@@ -18079,7 +18097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>541</v>
       </c>
@@ -18114,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>542</v>
       </c>
@@ -18146,10 +18164,10 @@
         <v>20</v>
       </c>
       <c r="K59">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>543</v>
       </c>
@@ -18184,7 +18202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>544</v>
       </c>
@@ -18219,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -18254,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>546</v>
       </c>
@@ -18286,10 +18304,10 @@
         <v>30.4</v>
       </c>
       <c r="K63">
-        <v>0.235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>547</v>
       </c>
@@ -18318,13 +18336,13 @@
         <v>2.6</v>
       </c>
       <c r="J64">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>548</v>
       </c>
@@ -18359,7 +18377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>549</v>
       </c>
@@ -18394,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>550</v>
       </c>
@@ -18429,7 +18447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>551</v>
       </c>
@@ -18458,13 +18476,13 @@
         <v>0.5</v>
       </c>
       <c r="J68">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>552</v>
       </c>
@@ -18493,13 +18511,13 @@
         <v>2.1</v>
       </c>
       <c r="J69">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="K69">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>553</v>
       </c>
@@ -18522,7 +18540,7 @@
         <v>3.4</v>
       </c>
       <c r="H70">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I70">
         <v>2.6</v>
@@ -18531,10 +18549,10 @@
         <v>21</v>
       </c>
       <c r="K70">
-        <v>0.07099999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>554</v>
       </c>
@@ -18569,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>555</v>
       </c>
@@ -18595,7 +18613,7 @@
         <v>6.5</v>
       </c>
       <c r="I72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J72">
         <v>7.4</v>
@@ -18604,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>556</v>
       </c>
@@ -18639,7 +18657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>557</v>
       </c>
@@ -18674,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>558</v>
       </c>
@@ -18709,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>559</v>
       </c>
@@ -18738,13 +18756,13 @@
         <v>2.6</v>
       </c>
       <c r="J76">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>560</v>
       </c>
@@ -18764,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H77">
         <v>6.2</v>
@@ -18779,7 +18797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>561</v>
       </c>
@@ -18802,19 +18820,19 @@
         <v>1.3</v>
       </c>
       <c r="H78">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I78">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J78">
         <v>11.4</v>
       </c>
       <c r="K78">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>562</v>
       </c>
@@ -18837,7 +18855,7 @@
         <v>0.5</v>
       </c>
       <c r="H79">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I79">
         <v>0.4</v>
@@ -18849,7 +18867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>563</v>
       </c>
@@ -18884,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>564</v>
       </c>
@@ -18910,16 +18928,16 @@
         <v>8</v>
       </c>
       <c r="I81">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J81">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="K81">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>565</v>
       </c>
@@ -18939,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H82">
         <v>11.1</v>
@@ -18951,10 +18969,10 @@
         <v>11.1</v>
       </c>
       <c r="K82">
-        <v>0.176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>566</v>
       </c>
@@ -18989,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>567</v>
       </c>
@@ -19024,7 +19042,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>568</v>
       </c>
@@ -19059,7 +19077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>569</v>
       </c>
@@ -19085,16 +19103,16 @@
         <v>10.4</v>
       </c>
       <c r="I86">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J86">
         <v>11.6</v>
       </c>
       <c r="K86">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>570</v>
       </c>
@@ -19126,10 +19144,10 @@
         <v>6.4</v>
       </c>
       <c r="K87">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>571</v>
       </c>
@@ -19164,7 +19182,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>572</v>
       </c>
@@ -19199,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>573</v>
       </c>
@@ -19234,7 +19252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>574</v>
       </c>
@@ -19269,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>575</v>
       </c>
@@ -19304,7 +19322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>576</v>
       </c>
@@ -19324,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H93">
         <v>6.7</v>
@@ -19339,7 +19357,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>577</v>
       </c>
@@ -19374,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>578</v>
       </c>
@@ -19397,19 +19415,19 @@
         <v>0.2</v>
       </c>
       <c r="H95">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I95">
         <v>0.3</v>
       </c>
       <c r="J95">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>579</v>
       </c>
@@ -19432,7 +19450,7 @@
         <v>0.8</v>
       </c>
       <c r="H96">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I96">
         <v>0.2</v>
@@ -19444,7 +19462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>580</v>
       </c>
@@ -19467,7 +19485,7 @@
         <v>0.6</v>
       </c>
       <c r="H97">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I97">
         <v>0.6</v>
@@ -19479,7 +19497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>581</v>
       </c>
@@ -19505,7 +19523,7 @@
         <v>5.9</v>
       </c>
       <c r="I98">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J98">
         <v>6.5</v>
@@ -19514,7 +19532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>582</v>
       </c>
@@ -19546,10 +19564,10 @@
         <v>11.4</v>
       </c>
       <c r="K99">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>583</v>
       </c>
@@ -19584,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>584</v>
       </c>
@@ -19604,22 +19622,22 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H101">
         <v>7.6</v>
       </c>
       <c r="I101">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J101">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K101">
-        <v>0.353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>585</v>
       </c>
@@ -19654,7 +19672,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>586</v>
       </c>
@@ -19689,7 +19707,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>587</v>
       </c>
@@ -19724,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>588</v>
       </c>
@@ -19759,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>589</v>
       </c>
@@ -19794,7 +19812,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>590</v>
       </c>
@@ -19826,10 +19844,10 @@
         <v>3.8</v>
       </c>
       <c r="K107">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>591</v>
       </c>
@@ -19864,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>592</v>
       </c>
@@ -19899,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>593</v>
       </c>
@@ -19934,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>594</v>
       </c>
@@ -19969,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>595</v>
       </c>
@@ -20001,10 +20019,10 @@
         <v>3.9</v>
       </c>
       <c r="K112">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>596</v>
       </c>
@@ -20039,7 +20057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>597</v>
       </c>
@@ -20062,19 +20080,19 @@
         <v>2.7</v>
       </c>
       <c r="H114">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I114">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J114">
         <v>11.2</v>
       </c>
       <c r="K114">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>598</v>
       </c>
@@ -20097,7 +20115,7 @@
         <v>3.4</v>
       </c>
       <c r="H115">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I115">
         <v>2.9</v>
@@ -20106,10 +20124,10 @@
         <v>25.9</v>
       </c>
       <c r="K115">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>599</v>
       </c>
@@ -20138,13 +20156,13 @@
         <v>2.1</v>
       </c>
       <c r="J116">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K116">
         <v>0.125</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>600</v>
       </c>
@@ -20167,7 +20185,7 @@
         <v>4.8</v>
       </c>
       <c r="H117">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I117">
         <v>3.8</v>
@@ -20179,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>601</v>
       </c>
@@ -20214,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>602</v>
       </c>
@@ -20249,7 +20267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>603</v>
       </c>
@@ -20284,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>604</v>
       </c>
@@ -20316,10 +20334,10 @@
         <v>2.9</v>
       </c>
       <c r="K121">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>605</v>
       </c>
@@ -20354,7 +20372,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>606</v>
       </c>
@@ -20386,10 +20404,10 @@
         <v>18.7</v>
       </c>
       <c r="K123">
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>607</v>
       </c>
@@ -20424,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>608</v>
       </c>
@@ -20447,7 +20465,7 @@
         <v>3.1</v>
       </c>
       <c r="H125">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I125">
         <v>2.5</v>
@@ -20459,7 +20477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>609</v>
       </c>
@@ -20488,13 +20506,13 @@
         <v>2</v>
       </c>
       <c r="J126">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K126">
         <v>0.125</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>610</v>
       </c>
@@ -20529,7 +20547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>611</v>
       </c>
@@ -20564,7 +20582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>612</v>
       </c>
@@ -20590,16 +20608,16 @@
         <v>15.8</v>
       </c>
       <c r="I129">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J129">
         <v>16.7</v>
       </c>
       <c r="K129">
-        <v>0.176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>613</v>
       </c>
@@ -20634,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>614</v>
       </c>
@@ -20654,7 +20672,7 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H131">
         <v>6.7</v>
@@ -20663,13 +20681,13 @@
         <v>3.1</v>
       </c>
       <c r="J131">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>615</v>
       </c>
@@ -20704,7 +20722,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>616</v>
       </c>
@@ -20739,7 +20757,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>617</v>
       </c>
